--- a/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM052AssetClass.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM052AssetClass.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v06v2\Desktop\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C1503A-CDF1-46D9-9355-AE2B9F48B79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="17592" windowHeight="8796" activeTab="2"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="SP" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -140,11 +150,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一般：00A
-利變：201</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MonthlyLM052AssetClass</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -200,24 +205,29 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一類：11、12
-二類：21、22、23
-三類：3
-四類：4
-五類：5
-折溢價與催收：6
-應收利息提列：7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Usp_L9_MonthlyLM052AssetClass_Ins</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>00A:一般
+201:利變</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/12:一類
+21/22/23:二類
+3:三類
+4:四類
+5:五類
+6:折溢價與催收
+7:應收利息提列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -549,7 +559,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -640,6 +650,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -675,6 +702,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -850,11 +894,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -874,7 +918,7 @@
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>32</v>
@@ -902,7 +946,7 @@
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>17</v>
@@ -989,7 +1033,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="32">
         <v>6</v>
@@ -1002,10 +1046,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>19</v>
@@ -1014,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1023,10 +1067,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>19</v>
@@ -1035,7 +1079,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1044,13 +1088,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="E12" s="18">
         <v>16</v>
@@ -1146,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1181,10 +1225,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1198,21 +1242,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
